--- a/700 HK.xlsx
+++ b/700 HK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2841D6-C6D2-4E89-90F9-86CF06154162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD20D1C-7010-478E-8850-303DBFA64C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9795" yWindow="360" windowWidth="19200" windowHeight="15210" xr2:uid="{C183CDF4-DAE3-4211-A459-AE4D0C2142B8}"/>
+    <workbookView xWindow="14370" yWindow="0" windowWidth="14505" windowHeight="15210" activeTab="1" xr2:uid="{C183CDF4-DAE3-4211-A459-AE4D0C2142B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
   <si>
     <t>Price HKD</t>
   </si>
@@ -141,13 +141,160 @@
   </si>
   <si>
     <t>Non-IFRS NI</t>
+  </si>
+  <si>
+    <t>Revenue Growth</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Prepayments</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Right of Use</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Lease</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>Mini Programs</t>
+  </si>
+  <si>
+    <t>Tencent Meeting</t>
+  </si>
+  <si>
+    <t>WeCom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mobile Games</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PC Games</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Domestic Games</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  International Games</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>League of Legends: Wild Rift</t>
+  </si>
+  <si>
+    <t>Fight of the Golden Spatula</t>
+  </si>
+  <si>
+    <t>Moonlight Blade Mobile</t>
+  </si>
+  <si>
+    <t>Call of Duty Mobile</t>
+  </si>
+  <si>
+    <t>Valorant</t>
+  </si>
+  <si>
+    <t>Clash of Clans</t>
+  </si>
+  <si>
+    <t>PUBG Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Other VAS (Social)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Social Networks</t>
+  </si>
+  <si>
+    <t>Sogou</t>
+  </si>
+  <si>
+    <t>WeChat</t>
+  </si>
+  <si>
+    <t>Tencent News</t>
+  </si>
+  <si>
+    <t>Tencent Video</t>
+  </si>
+  <si>
+    <t>Weixin</t>
+  </si>
+  <si>
+    <t>WeChat MAU</t>
+  </si>
+  <si>
+    <t>QQ MAU</t>
+  </si>
+  <si>
+    <t>QQ</t>
+  </si>
+  <si>
+    <t>Fee-based Subs</t>
+  </si>
+  <si>
+    <t>Honour of Kings</t>
+  </si>
+  <si>
+    <t>Peacekeeper Elite</t>
+  </si>
+  <si>
+    <t>Return to Empire</t>
+  </si>
+  <si>
+    <t>Dune Spice Wars</t>
+  </si>
+  <si>
+    <t>Apex Legends Mobile (EA)</t>
+  </si>
+  <si>
+    <t>VOD PaaS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -165,6 +312,14 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -190,7 +345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -205,6 +360,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -221,6 +385,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D55A4F99-8EE0-E79A-7850-D5C422B1BE16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11325225" y="0"/>
+          <a:ext cx="0" cy="7334250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C37404-0B9D-42EE-A8BE-34841170FFE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7077075" y="0"/>
+          <a:ext cx="0" cy="7334250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -520,18 +789,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E1D774-2E12-4746-88E6-1A6120E6AF7B}">
-  <dimension ref="K2:M7"/>
+  <dimension ref="B2:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="11" max="11" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="K2" t="s">
         <v>0</v>
       </c>
@@ -539,7 +809,10 @@
         <v>325</v>
       </c>
     </row>
-    <row r="3" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
       <c r="K3" t="s">
         <v>1</v>
       </c>
@@ -550,7 +823,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
       <c r="K4" t="s">
         <v>2</v>
       </c>
@@ -559,36 +835,134 @@
         <v>3099.85</v>
       </c>
     </row>
-    <row r="5" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
       <c r="K5" t="s">
         <v>3</v>
       </c>
-      <c r="L5">
-        <v>304</v>
+      <c r="L5" s="3">
+        <v>1086</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
       <c r="K6" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="3">
-        <f>L5+11.035</f>
-        <v>315.03500000000003</v>
+        <v>324</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="3">
         <f>L4-L5+L6</f>
-        <v>3110.8849999999998</v>
+        <v>2337.85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -598,28 +972,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666C0D08-E52C-4128-A040-0E26B040CE26}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:AF49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomRight" activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="14" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
@@ -656,134 +1030,201 @@
       <c r="N2" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q2">
+        <v>2020</v>
+      </c>
+      <c r="R2">
+        <f>Q2+1</f>
+        <v>2021</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2:AF2" si="0">R2+1</f>
+        <v>2022</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4">
+        <v>1251.4000000000001</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4">
-        <v>72443</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+        <v>1241.5999999999999</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1251.4000000000001</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1262.5999999999999</v>
+      </c>
       <c r="J3" s="4">
-        <v>71913</v>
+        <v>1268.2</v>
       </c>
       <c r="K3" s="4">
-        <v>72738</v>
+        <v>1288.3</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4">
+        <v>617.4</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4">
-        <v>21820</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+        <v>606.4</v>
+      </c>
+      <c r="H4" s="4">
+        <v>590.9</v>
+      </c>
+      <c r="I4" s="4">
+        <v>573.70000000000005</v>
+      </c>
       <c r="J4" s="4">
-        <v>21518</v>
+        <v>552.1</v>
       </c>
       <c r="K4" s="4">
-        <v>17988</v>
+        <v>563.79999999999995</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4">
+        <v>213.4</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4">
-        <v>39028</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+        <v>225.7</v>
+      </c>
+      <c r="H5" s="4">
+        <v>229.4</v>
+      </c>
+      <c r="I5" s="4">
+        <v>235.4</v>
+      </c>
       <c r="J5" s="4">
-        <v>47958</v>
+        <v>236.3</v>
       </c>
       <c r="K5" s="4">
-        <v>42768</v>
+        <v>239.1</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4">
-        <v>2012</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4">
-        <v>2799</v>
-      </c>
-      <c r="K6" s="4">
-        <v>1977</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6">
-        <f t="shared" ref="G7:I7" si="0">SUM(G3:G6)</f>
-        <v>135303</v>
-      </c>
-      <c r="H7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <f>SUM(J3:J6)</f>
-        <v>144188</v>
-      </c>
-      <c r="K7" s="6">
-        <f>SUM(K3:K6)</f>
-        <v>135471</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4">
+        <v>62429</v>
+      </c>
+      <c r="D7" s="4">
+        <v>65002</v>
+      </c>
+      <c r="E7" s="4">
+        <v>69802</v>
+      </c>
+      <c r="F7" s="4">
+        <v>66979</v>
+      </c>
+      <c r="G7" s="4">
+        <v>72443</v>
+      </c>
+      <c r="H7" s="4">
+        <v>72013</v>
+      </c>
+      <c r="I7" s="4">
+        <v>75203</v>
+      </c>
+      <c r="J7" s="4">
+        <v>71913</v>
+      </c>
+      <c r="K7" s="4">
+        <v>72738</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="Q7" s="3">
+        <v>264212</v>
+      </c>
+      <c r="R7" s="3">
+        <v>291572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -794,15 +1235,15 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4">
-        <v>78397</v>
+        <v>40300</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -813,16 +1254,15 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4">
-        <f>K7-K8</f>
-        <v>57074</v>
+        <v>12100</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -833,15 +1273,16 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4">
-        <v>26669</v>
+        <f>K7-K8-K9</f>
+        <v>20338</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -852,15 +1293,15 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4">
-        <v>8058</v>
+        <v>33000</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -871,16 +1312,15 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4">
-        <f>K10+K11</f>
-        <v>34727</v>
+        <v>10600</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -891,17 +1331,13 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4">
-        <f>K9-K12</f>
-        <v>22347</v>
+        <v>29100</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>33</v>
-      </c>
+    <row r="14" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -910,81 +1346,1091 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4">
-        <f>13133+1737-1935-6280</f>
-        <v>6655</v>
-      </c>
+      <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C15" s="4">
+        <v>17713</v>
+      </c>
+      <c r="D15" s="4">
+        <v>18552</v>
+      </c>
+      <c r="E15" s="4">
+        <v>21351</v>
+      </c>
+      <c r="F15" s="4">
+        <v>24655</v>
+      </c>
+      <c r="G15" s="4">
+        <v>21820</v>
+      </c>
+      <c r="H15" s="4">
+        <v>22833</v>
+      </c>
+      <c r="I15" s="4">
+        <v>22495</v>
+      </c>
+      <c r="J15" s="4">
+        <v>21518</v>
+      </c>
       <c r="K15" s="4">
-        <f>K13+K14</f>
-        <v>29002</v>
+        <v>17988</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>82271</v>
+      </c>
+      <c r="R15" s="3">
+        <v>88666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="C16" s="4">
+        <v>26475</v>
+      </c>
+      <c r="D16" s="4">
+        <v>29862</v>
+      </c>
+      <c r="E16" s="4">
+        <v>33255</v>
+      </c>
+      <c r="F16" s="4">
+        <v>38494</v>
+      </c>
+      <c r="G16" s="4">
+        <v>39028</v>
+      </c>
+      <c r="H16" s="4">
+        <v>41892</v>
+      </c>
+      <c r="I16" s="4">
+        <v>43317</v>
+      </c>
+      <c r="J16" s="4">
+        <v>47958</v>
+      </c>
       <c r="K16" s="4">
-        <f>5269+320</f>
-        <v>5589</v>
+        <v>42768</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3">
+        <v>128086</v>
+      </c>
+      <c r="R16" s="3">
+        <v>172195</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1448</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1467</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1039</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3541</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2012</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1521</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1353</v>
+      </c>
+      <c r="J17" s="4">
+        <v>2799</v>
+      </c>
       <c r="K17" s="4">
-        <f>K15-K16</f>
-        <v>23413</v>
+        <v>1977</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
+      <c r="Q17" s="3">
+        <v>7495</v>
+      </c>
+      <c r="R17" s="3">
+        <v>7685</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" ref="C18" si="1">C17+C16+C15+C7</f>
+        <v>108065</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" ref="D18" si="2">D17+D16+D15+D7</f>
+        <v>114883</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" ref="E18:J18" si="3">E17+E16+E15+E7</f>
+        <v>125447</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="3"/>
+        <v>133669</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="3"/>
+        <v>135303</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="3"/>
+        <v>138259</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="3"/>
+        <v>142368</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="3"/>
+        <v>144188</v>
+      </c>
+      <c r="K18" s="6">
+        <f>K17+K16+K15+K7</f>
+        <v>135471</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="Q18" s="6">
+        <f t="shared" ref="Q18:R18" si="4">Q17+Q16+Q15+Q7</f>
+        <v>482064</v>
+      </c>
+      <c r="R18" s="6">
+        <f t="shared" si="4"/>
+        <v>560118</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="4">
+        <v>55271</v>
+      </c>
+      <c r="D19" s="4">
+        <v>61673</v>
+      </c>
+      <c r="E19" s="4">
+        <v>68800</v>
+      </c>
+      <c r="F19" s="4">
+        <v>74788</v>
+      </c>
+      <c r="G19" s="4">
+        <v>72668</v>
+      </c>
+      <c r="H19" s="4">
+        <v>75514</v>
+      </c>
+      <c r="I19" s="4">
+        <v>79621</v>
+      </c>
+      <c r="J19" s="4">
+        <v>86371</v>
+      </c>
+      <c r="K19" s="4">
+        <v>78397</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="Q19" s="3">
+        <v>260532</v>
+      </c>
+      <c r="R19" s="3">
+        <v>314174</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" ref="C20" si="5">C18-C19</f>
+        <v>52794</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" ref="D20" si="6">D18-D19</f>
+        <v>53210</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" ref="E20:F20" si="7">E18-E19</f>
+        <v>56647</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="7"/>
+        <v>58881</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" ref="G20:J20" si="8">G18-G19</f>
+        <v>62635</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="8"/>
+        <v>62745</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="8"/>
+        <v>62747</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="8"/>
+        <v>57817</v>
+      </c>
+      <c r="K20" s="4">
+        <f>K18-K19</f>
+        <v>57074</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="Q20" s="3">
+        <f t="shared" ref="Q20" si="9">Q18-Q19</f>
+        <v>221532</v>
+      </c>
+      <c r="R20" s="3">
+        <f>R18-R19</f>
+        <v>245944</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="4">
+        <v>14158</v>
+      </c>
+      <c r="D21" s="4">
+        <v>16499</v>
+      </c>
+      <c r="E21" s="4">
+        <v>17189</v>
+      </c>
+      <c r="F21" s="4">
+        <v>19779</v>
+      </c>
+      <c r="G21" s="4">
+        <v>18967</v>
+      </c>
+      <c r="H21" s="4">
+        <v>22638</v>
+      </c>
+      <c r="I21" s="4">
+        <v>23862</v>
+      </c>
+      <c r="J21" s="4">
+        <v>24380</v>
+      </c>
+      <c r="K21" s="4">
+        <v>26669</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="Q21" s="3">
+        <v>67625</v>
+      </c>
+      <c r="R21" s="3">
+        <v>89847</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="4">
+        <v>7049</v>
+      </c>
+      <c r="D22" s="4">
+        <v>7756</v>
+      </c>
+      <c r="E22" s="4">
+        <v>8920</v>
+      </c>
+      <c r="F22" s="4">
+        <v>10033</v>
+      </c>
+      <c r="G22" s="4">
+        <v>8530</v>
+      </c>
+      <c r="H22" s="4">
+        <v>10013</v>
+      </c>
+      <c r="I22" s="4">
+        <v>10435</v>
+      </c>
+      <c r="J22" s="4">
+        <v>11616</v>
+      </c>
+      <c r="K22" s="4">
+        <v>8058</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="Q22" s="3">
+        <v>33758</v>
+      </c>
+      <c r="R22" s="3">
+        <v>40594</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" ref="C23" si="10">C21+C22</f>
+        <v>21207</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" ref="D23" si="11">D21+D22</f>
+        <v>24255</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" ref="E23" si="12">E21+E22</f>
+        <v>26109</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" ref="F23" si="13">F21+F22</f>
+        <v>29812</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" ref="G23:J23" si="14">G21+G22</f>
+        <v>27497</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="14"/>
+        <v>32651</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="14"/>
+        <v>34297</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="14"/>
+        <v>35996</v>
+      </c>
+      <c r="K23" s="4">
+        <f>K21+K22</f>
+        <v>34727</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="Q23" s="3">
+        <f t="shared" ref="Q23" si="15">Q21+Q22</f>
+        <v>101383</v>
+      </c>
+      <c r="R23" s="3">
+        <f>R21+R22</f>
+        <v>130441</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" ref="C24" si="16">C20-C23</f>
+        <v>31587</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" ref="D24" si="17">D20-D23</f>
+        <v>28955</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" ref="E24" si="18">E20-E23</f>
+        <v>30538</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" ref="F24" si="19">F20-F23</f>
+        <v>29069</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" ref="G24:J24" si="20">G20-G23</f>
+        <v>35138</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="20"/>
+        <v>30094</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="20"/>
+        <v>28450</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="20"/>
+        <v>21821</v>
+      </c>
+      <c r="K24" s="4">
+        <f>K20-K23</f>
+        <v>22347</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="Q24" s="3">
+        <f t="shared" ref="Q24" si="21">Q20-Q23</f>
+        <v>120149</v>
+      </c>
+      <c r="R24" s="3">
+        <f>R20-R23</f>
+        <v>115503</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="4">
+        <f>1636+4037-1684-281</f>
+        <v>3708</v>
+      </c>
+      <c r="D25" s="4">
+        <f>1749+8607-2005-295</f>
+        <v>8056</v>
+      </c>
+      <c r="E25" s="4">
+        <f>1864+11551-1945+2630</f>
+        <v>14100</v>
+      </c>
+      <c r="F25" s="4">
+        <f>32936+1708-2253+1618</f>
+        <v>34009</v>
+      </c>
+      <c r="G25" s="4">
+        <f>1614+19521-1367+1348</f>
+        <v>21116</v>
+      </c>
+      <c r="H25" s="4">
+        <f>1630+20763-1942-3857</f>
+        <v>16594</v>
+      </c>
+      <c r="I25" s="4">
+        <f>1703+22984-1942-5668</f>
+        <v>17077</v>
+      </c>
+      <c r="J25" s="4">
+        <f>1703+86199-1863-8267</f>
+        <v>77772</v>
+      </c>
+      <c r="K25" s="4">
+        <f>13133+1737-1935-6280</f>
+        <v>6655</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="Q25" s="3">
+        <f>6957+57131-7887+3672</f>
+        <v>59873</v>
+      </c>
+      <c r="R25" s="3">
+        <f>6650+149467-7114-16444</f>
+        <v>132559</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" ref="C26" si="22">C24+C25</f>
+        <v>35295</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" ref="D26" si="23">D24+D25</f>
+        <v>37011</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" ref="E26:F26" si="24">E24+E25</f>
+        <v>44638</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="24"/>
+        <v>63078</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" ref="G26:J26" si="25">G24+G25</f>
+        <v>56254</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="25"/>
+        <v>46688</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="25"/>
+        <v>45527</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="25"/>
+        <v>99593</v>
+      </c>
+      <c r="K26" s="4">
+        <f>K24+K25</f>
+        <v>29002</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="Q26" s="3">
+        <f>Q24+Q25</f>
+        <v>180022</v>
+      </c>
+      <c r="R26" s="3">
+        <f>R24+R25</f>
+        <v>248062</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="4">
+        <f>5892+507</f>
+        <v>6399</v>
+      </c>
+      <c r="D27" s="4">
+        <f>4557+653</f>
+        <v>5210</v>
+      </c>
+      <c r="E27" s="4">
+        <f>5739+357</f>
+        <v>6096</v>
+      </c>
+      <c r="F27" s="4">
+        <f>3709+67</f>
+        <v>3776</v>
+      </c>
+      <c r="G27" s="4">
+        <f>7246+1241</f>
+        <v>8487</v>
+      </c>
+      <c r="H27" s="4">
+        <f>3666+435</f>
+        <v>4101</v>
+      </c>
+      <c r="I27" s="4">
+        <f>5452+565</f>
+        <v>6017</v>
+      </c>
+      <c r="J27" s="4">
+        <f>3888+747</f>
+        <v>4635</v>
+      </c>
+      <c r="K27" s="4">
+        <f>5269+320</f>
+        <v>5589</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="Q27" s="3">
+        <f>19897+278</f>
+        <v>20175</v>
+      </c>
+      <c r="R27" s="3">
+        <f>20252+2988</f>
+        <v>23240</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" ref="C28" si="26">C26-C27</f>
+        <v>28896</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" ref="D28" si="27">D26-D27</f>
+        <v>31801</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" ref="E28:F28" si="28">E26-E27</f>
+        <v>38542</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="28"/>
+        <v>59302</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" ref="G28:J28" si="29">G26-G27</f>
+        <v>47767</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="29"/>
+        <v>42587</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="29"/>
+        <v>39510</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="29"/>
+        <v>94958</v>
+      </c>
+      <c r="K28" s="4">
+        <f>K26-K27</f>
+        <v>23413</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="Q28" s="3">
+        <f>Q26-Q27</f>
+        <v>159847</v>
+      </c>
+      <c r="R28" s="3">
+        <f>R26-R27</f>
+        <v>224822</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="4">
+      <c r="C29" s="4">
+        <v>27079</v>
+      </c>
+      <c r="D29" s="4">
+        <v>30153</v>
+      </c>
+      <c r="E29" s="4">
+        <v>32203</v>
+      </c>
+      <c r="F29" s="4">
+        <v>33207</v>
+      </c>
+      <c r="G29" s="4">
+        <v>33118</v>
+      </c>
+      <c r="H29" s="4">
+        <v>34039</v>
+      </c>
+      <c r="I29" s="4">
+        <v>31751</v>
+      </c>
+      <c r="J29" s="4">
+        <v>24880</v>
+      </c>
+      <c r="K29" s="4">
         <v>25545</v>
       </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="Q29" s="3">
+        <v>122742</v>
+      </c>
+      <c r="R29" s="3">
+        <v>123788</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9">
+        <f t="shared" ref="G31" si="30">G18/C18-1</f>
+        <v>0.2520520057372877</v>
+      </c>
+      <c r="H31" s="9">
+        <f t="shared" ref="H31:J31" si="31">H18/D18-1</f>
+        <v>0.20347658052105189</v>
+      </c>
+      <c r="I31" s="9">
+        <f t="shared" si="31"/>
+        <v>0.13488564891946409</v>
+      </c>
+      <c r="J31" s="9">
+        <f t="shared" si="31"/>
+        <v>7.8694386881027034E-2</v>
+      </c>
+      <c r="K31" s="9">
+        <f>K18/G18-1</f>
+        <v>1.2416576129132828E-3</v>
+      </c>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="R31" s="11">
+        <f>R18/Q18-1</f>
+        <v>0.16191626008164883</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4">
+        <f>188826+2691+82604+11742+1568+69961+21124+4222+189993+197161+6509+309630</f>
+        <v>1086031</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4">
+        <v>52774</v>
+      </c>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4">
+        <v>2712</v>
+      </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4">
+        <v>27616</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4">
+        <v>37093</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4">
+        <v>178712</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4">
+        <f>589+6529+61560</f>
+        <v>68678</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4">
+        <f>18451+22091</f>
+        <v>40542</v>
+      </c>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4">
+        <f>SUM(K33:K40)</f>
+        <v>1494158</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4">
+        <f>148467+135465+21656+5783+9515+3326</f>
+        <v>324212</v>
+      </c>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4">
+        <f>9377+112512+48437</f>
+        <v>170326</v>
+      </c>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4">
+        <f>12524+13968+2456</f>
+        <v>28948</v>
+      </c>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4">
+        <f>17981+5927</f>
+        <v>23908</v>
+      </c>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4">
+        <f>4562+96925</f>
+        <v>101487</v>
+      </c>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4">
+        <v>845277</v>
+      </c>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4">
+        <f>SUM(K43:K48)</f>
+        <v>1494158</v>
+      </c>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -992,5 +2438,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/700 HK.xlsx
+++ b/700 HK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD20D1C-7010-478E-8850-303DBFA64C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B13923-84FD-487A-8D12-837BA59FFEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14370" yWindow="0" windowWidth="14505" windowHeight="15210" activeTab="1" xr2:uid="{C183CDF4-DAE3-4211-A459-AE4D0C2142B8}"/>
+    <workbookView xWindow="9570" yWindow="1875" windowWidth="18810" windowHeight="13215" xr2:uid="{C183CDF4-DAE3-4211-A459-AE4D0C2142B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -791,7 +791,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E1D774-2E12-4746-88E6-1A6120E6AF7B}">
   <dimension ref="B2:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -974,7 +976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666C0D08-E52C-4128-A040-0E26B040CE26}">
   <dimension ref="A1:AF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/700 HK.xlsx
+++ b/700 HK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B13923-84FD-487A-8D12-837BA59FFEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CAD233-77CA-48CF-9654-32C257C21C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9570" yWindow="1875" windowWidth="18810" windowHeight="13215" xr2:uid="{C183CDF4-DAE3-4211-A459-AE4D0C2142B8}"/>
+    <workbookView xWindow="54840" yWindow="2055" windowWidth="20310" windowHeight="17790" activeTab="1" xr2:uid="{C183CDF4-DAE3-4211-A459-AE4D0C2142B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
   <si>
     <t>Price HKD</t>
   </si>
@@ -272,9 +272,6 @@
     <t>Fee-based Subs</t>
   </si>
   <si>
-    <t>Honour of Kings</t>
-  </si>
-  <si>
     <t>Peacekeeper Elite</t>
   </si>
   <si>
@@ -288,12 +285,27 @@
   </si>
   <si>
     <t>VOD PaaS</t>
+  </si>
+  <si>
+    <t>Honour of Kings - 100m DAUs?</t>
+  </si>
+  <si>
+    <t>Headcount</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -345,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -369,6 +381,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -399,7 +421,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -441,16 +463,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -465,8 +487,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7077075" y="0"/>
-          <a:ext cx="0" cy="7334250"/>
+          <a:off x="7753350" y="57150"/>
+          <a:ext cx="0" cy="9115425"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -791,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E1D774-2E12-4746-88E6-1A6120E6AF7B}">
   <dimension ref="B2:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -808,33 +830,33 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>78</v>
+      <c r="B3" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="3">
-        <v>9.5380000000000003</v>
+      <c r="L3" s="13">
+        <v>9.6720000000000006</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="3">
         <f>L2*L3</f>
-        <v>3099.85</v>
+        <v>3124.056</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -845,10 +867,10 @@
         <v>3</v>
       </c>
       <c r="L5" s="3">
-        <v>1086</v>
+        <v>989</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
@@ -859,10 +881,10 @@
         <v>4</v>
       </c>
       <c r="L6" s="3">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -874,7 +896,7 @@
       </c>
       <c r="L7" s="3">
         <f>L4-L5+L6</f>
-        <v>2337.85</v>
+        <v>2481.056</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -899,17 +921,17 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
@@ -964,23 +986,24 @@
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666C0D08-E52C-4128-A040-0E26B040CE26}">
-  <dimension ref="A1:AF49"/>
+  <dimension ref="A1:AF53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P31" sqref="P31"/>
+      <selection pane="bottomRight" activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1121,7 +1144,9 @@
       <c r="K3" s="4">
         <v>1288.3</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="4">
+        <v>1299.0999999999999</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
@@ -1150,7 +1175,9 @@
       <c r="K4" s="4">
         <v>563.79999999999995</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="4">
+        <v>568.70000000000005</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
@@ -1179,7 +1206,9 @@
       <c r="K5" s="4">
         <v>239.1</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5" s="4">
+        <v>234.7</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
@@ -1214,14 +1243,27 @@
       <c r="K7" s="4">
         <v>72738</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="L7" s="4">
+        <v>71683</v>
+      </c>
+      <c r="M7" s="4">
+        <f>+I7*0.99</f>
+        <v>74450.97</v>
+      </c>
+      <c r="N7" s="4">
+        <f>+J7*1.03</f>
+        <v>74070.39</v>
+      </c>
       <c r="Q7" s="3">
         <v>264212</v>
       </c>
       <c r="R7" s="3">
+        <f>SUM(G7:J7)</f>
         <v>291572</v>
+      </c>
+      <c r="S7" s="3">
+        <f>SUM(K7:N7)</f>
+        <v>292942.36</v>
       </c>
     </row>
     <row r="8" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1239,7 +1281,9 @@
       <c r="K8" s="4">
         <v>40300</v>
       </c>
-      <c r="L8" s="4"/>
+      <c r="L8" s="4">
+        <v>40000</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
@@ -1258,7 +1302,9 @@
       <c r="K9" s="4">
         <v>12100</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="4">
+        <v>11600</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
@@ -1278,7 +1324,10 @@
         <f>K7-K8-K9</f>
         <v>20338</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="4">
+        <f>L7-L8-L9</f>
+        <v>20083</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
@@ -1297,7 +1346,9 @@
       <c r="K11" s="4">
         <v>33000</v>
       </c>
-      <c r="L11" s="4"/>
+      <c r="L11" s="4">
+        <v>31800</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
@@ -1316,7 +1367,9 @@
       <c r="K12" s="4">
         <v>10600</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="L12" s="4">
+        <v>10700</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
@@ -1335,7 +1388,9 @@
       <c r="K13" s="4">
         <v>29100</v>
       </c>
-      <c r="L13" s="4"/>
+      <c r="L13" s="4">
+        <v>29200</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
@@ -1384,14 +1439,27 @@
       <c r="K15" s="4">
         <v>17988</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
+      <c r="L15" s="4">
+        <v>18638</v>
+      </c>
+      <c r="M15" s="4">
+        <f>+I15*0.99</f>
+        <v>22270.05</v>
+      </c>
+      <c r="N15" s="4">
+        <f>+J15*0.99</f>
+        <v>21302.82</v>
+      </c>
       <c r="Q15" s="3">
         <v>82271</v>
       </c>
       <c r="R15" s="3">
+        <f>SUM(G15:J15)</f>
         <v>88666</v>
+      </c>
+      <c r="S15" s="3">
+        <f>SUM(K15:N15)</f>
+        <v>80198.87</v>
       </c>
     </row>
     <row r="16" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1425,17 +1493,30 @@
       <c r="K16" s="4">
         <v>42768</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
+      <c r="L16" s="4">
+        <v>42208</v>
+      </c>
+      <c r="M16" s="4">
+        <f>+I16*1.01</f>
+        <v>43750.17</v>
+      </c>
+      <c r="N16" s="4">
+        <f>+J16*1.01</f>
+        <v>48437.58</v>
+      </c>
       <c r="Q16" s="3">
         <v>128086</v>
       </c>
       <c r="R16" s="3">
+        <f>SUM(G16:J16)</f>
         <v>172195</v>
       </c>
-    </row>
-    <row r="17" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S16" s="3">
+        <f>SUM(K16:N16)</f>
+        <v>177163.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
@@ -1466,17 +1547,30 @@
       <c r="K17" s="4">
         <v>1977</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
+      <c r="L17" s="4">
+        <v>1505</v>
+      </c>
+      <c r="M17" s="4">
+        <f>+I17*1.01</f>
+        <v>1366.53</v>
+      </c>
+      <c r="N17" s="4">
+        <f>+J17*1.01</f>
+        <v>2826.9900000000002</v>
+      </c>
       <c r="Q17" s="3">
         <v>7495</v>
       </c>
       <c r="R17" s="3">
+        <f>SUM(G17:J17)</f>
         <v>7685</v>
       </c>
-    </row>
-    <row r="18" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <f>SUM(K17:N17)</f>
+        <v>7675.52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
@@ -1516,19 +1610,52 @@
         <f>K17+K16+K15+K7</f>
         <v>135471</v>
       </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
+      <c r="L18" s="6">
+        <f>L17+L16+L15+L7</f>
+        <v>134034</v>
+      </c>
+      <c r="M18" s="6">
+        <f>M17+M16+M15+M7</f>
+        <v>141837.72</v>
+      </c>
+      <c r="N18" s="6">
+        <f>N17+N16+N15+N7</f>
+        <v>146637.78</v>
+      </c>
       <c r="Q18" s="6">
-        <f t="shared" ref="Q18:R18" si="4">Q17+Q16+Q15+Q7</f>
+        <f t="shared" ref="Q18:X18" si="4">Q17+Q16+Q15+Q7</f>
         <v>482064</v>
       </c>
       <c r="R18" s="6">
         <f t="shared" si="4"/>
         <v>560118</v>
       </c>
-    </row>
-    <row r="19" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S18" s="6">
+        <f t="shared" si="4"/>
+        <v>557980.5</v>
+      </c>
+      <c r="T18" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
@@ -1559,17 +1686,29 @@
       <c r="K19" s="4">
         <v>78397</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+      <c r="L19" s="4">
+        <v>76167</v>
+      </c>
+      <c r="M19" s="4">
+        <f>+M18-M20</f>
+        <v>79429.123200000002</v>
+      </c>
+      <c r="N19" s="4">
+        <f>+N18-N20</f>
+        <v>82117.156799999997</v>
+      </c>
       <c r="Q19" s="3">
         <v>260532</v>
       </c>
       <c r="R19" s="3">
         <v>314174</v>
       </c>
-    </row>
-    <row r="20" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S19" s="3">
+        <f>SUM(K19:N19)</f>
+        <v>316110.28000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>25</v>
       </c>
@@ -1609,9 +1748,18 @@
         <f>K18-K19</f>
         <v>57074</v>
       </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
+      <c r="L20" s="4">
+        <f>L18-L19</f>
+        <v>57867</v>
+      </c>
+      <c r="M20" s="4">
+        <f>+M18*0.44</f>
+        <v>62408.596799999999</v>
+      </c>
+      <c r="N20" s="4">
+        <f>+N18*0.44</f>
+        <v>64520.623200000002</v>
+      </c>
       <c r="Q20" s="3">
         <f t="shared" ref="Q20" si="9">Q18-Q19</f>
         <v>221532</v>
@@ -1620,8 +1768,12 @@
         <f>R18-R19</f>
         <v>245944</v>
       </c>
-    </row>
-    <row r="21" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <f>S18-S19</f>
+        <v>241870.21999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
@@ -1652,17 +1804,29 @@
       <c r="K21" s="4">
         <v>26669</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
+      <c r="L21" s="4">
+        <v>26233</v>
+      </c>
+      <c r="M21" s="4">
+        <f>+I21*0.95</f>
+        <v>22668.899999999998</v>
+      </c>
+      <c r="N21" s="4">
+        <f>+J21*0.95</f>
+        <v>23161</v>
+      </c>
       <c r="Q21" s="3">
         <v>67625</v>
       </c>
       <c r="R21" s="3">
         <v>89847</v>
       </c>
-    </row>
-    <row r="22" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <f>SUM(K21:N21)</f>
+        <v>98731.9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>27</v>
       </c>
@@ -1693,17 +1857,29 @@
       <c r="K22" s="4">
         <v>8058</v>
       </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
+      <c r="L22" s="4">
+        <v>7932</v>
+      </c>
+      <c r="M22" s="4">
+        <f>+I22*0.95</f>
+        <v>9913.25</v>
+      </c>
+      <c r="N22" s="4">
+        <f>+J22*0.95</f>
+        <v>11035.199999999999</v>
+      </c>
       <c r="Q22" s="3">
         <v>33758</v>
       </c>
       <c r="R22" s="3">
         <v>40594</v>
       </c>
-    </row>
-    <row r="23" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <f>SUM(K22:N22)</f>
+        <v>36938.449999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
@@ -1743,71 +1919,97 @@
         <f>K21+K22</f>
         <v>34727</v>
       </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
+      <c r="L23" s="4">
+        <f>L21+L22</f>
+        <v>34165</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" ref="M23:N23" si="15">M21+M22</f>
+        <v>32582.149999999998</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="15"/>
+        <v>34196.199999999997</v>
+      </c>
       <c r="Q23" s="3">
-        <f t="shared" ref="Q23" si="15">Q21+Q22</f>
+        <f t="shared" ref="Q23" si="16">Q21+Q22</f>
         <v>101383</v>
       </c>
       <c r="R23" s="3">
         <f>R21+R22</f>
         <v>130441</v>
       </c>
-    </row>
-    <row r="24" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <f>S21+S22</f>
+        <v>135670.34999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" ref="C24" si="16">C20-C23</f>
+        <f t="shared" ref="C24" si="17">C20-C23</f>
         <v>31587</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" ref="D24" si="17">D20-D23</f>
+        <f t="shared" ref="D24" si="18">D20-D23</f>
         <v>28955</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" ref="E24" si="18">E20-E23</f>
+        <f t="shared" ref="E24" si="19">E20-E23</f>
         <v>30538</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" ref="F24" si="19">F20-F23</f>
+        <f t="shared" ref="F24" si="20">F20-F23</f>
         <v>29069</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" ref="G24:J24" si="20">G20-G23</f>
+        <f t="shared" ref="G24:J24" si="21">G20-G23</f>
         <v>35138</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>30094</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>28450</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>21821</v>
       </c>
       <c r="K24" s="4">
         <f>K20-K23</f>
         <v>22347</v>
       </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
+      <c r="L24" s="4">
+        <f>L20-L23</f>
+        <v>23702</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" ref="M24:N24" si="22">M20-M23</f>
+        <v>29826.446800000002</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="22"/>
+        <v>30324.423200000005</v>
+      </c>
       <c r="Q24" s="3">
-        <f t="shared" ref="Q24" si="21">Q20-Q23</f>
+        <f t="shared" ref="Q24" si="23">Q20-Q23</f>
         <v>120149</v>
       </c>
       <c r="R24" s="3">
         <f>R20-R23</f>
         <v>115503</v>
       </c>
-    </row>
-    <row r="25" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <f>S20-S23</f>
+        <v>106199.87</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>33</v>
       </c>
@@ -1847,9 +2049,18 @@
         <f>13133+1737-1935-6280</f>
         <v>6655</v>
       </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
+      <c r="L25" s="4">
+        <f>1945-1809-4460+4420</f>
+        <v>96</v>
+      </c>
+      <c r="M25" s="4">
+        <f>AVERAGE(I25:L25)</f>
+        <v>25400</v>
+      </c>
+      <c r="N25" s="4">
+        <f>AVERAGE(J25:M25)</f>
+        <v>27480.75</v>
+      </c>
       <c r="Q25" s="3">
         <f>6957+57131-7887+3672</f>
         <v>59873</v>
@@ -1858,50 +2069,63 @@
         <f>6650+149467-7114-16444</f>
         <v>132559</v>
       </c>
-    </row>
-    <row r="26" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <f>SUM(K25:N25)</f>
+        <v>59631.75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" ref="C26" si="22">C24+C25</f>
+        <f t="shared" ref="C26" si="24">C24+C25</f>
         <v>35295</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" ref="D26" si="23">D24+D25</f>
+        <f t="shared" ref="D26" si="25">D24+D25</f>
         <v>37011</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" ref="E26:F26" si="24">E24+E25</f>
+        <f t="shared" ref="E26:F26" si="26">E24+E25</f>
         <v>44638</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>63078</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" ref="G26:J26" si="25">G24+G25</f>
+        <f t="shared" ref="G26:J26" si="27">G24+G25</f>
         <v>56254</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>46688</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>45527</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>99593</v>
       </c>
       <c r="K26" s="4">
         <f>K24+K25</f>
         <v>29002</v>
       </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
+      <c r="L26" s="4">
+        <f>L24+L25</f>
+        <v>23798</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" ref="M26:N26" si="28">M24+M25</f>
+        <v>55226.446800000005</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="28"/>
+        <v>57805.173200000005</v>
+      </c>
       <c r="Q26" s="3">
         <f>Q24+Q25</f>
         <v>180022</v>
@@ -1910,8 +2134,12 @@
         <f>R24+R25</f>
         <v>248062</v>
       </c>
-    </row>
-    <row r="27" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <f>S24+S25</f>
+        <v>165831.62</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>31</v>
       </c>
@@ -1951,9 +2179,17 @@
         <f>5269+320</f>
         <v>5589</v>
       </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
+      <c r="L27" s="4">
+        <v>4568</v>
+      </c>
+      <c r="M27" s="4">
+        <f>+M26*0.15</f>
+        <v>8283.96702</v>
+      </c>
+      <c r="N27" s="4">
+        <f>+N26*0.15</f>
+        <v>8670.7759800000003</v>
+      </c>
       <c r="Q27" s="3">
         <f>19897+278</f>
         <v>20175</v>
@@ -1962,50 +2198,64 @@
         <f>20252+2988</f>
         <v>23240</v>
       </c>
-    </row>
-    <row r="28" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <f>SUM(K27:N27)</f>
+        <v>27111.743000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" ref="C28" si="26">C26-C27</f>
+        <f t="shared" ref="C28" si="29">C26-C27</f>
         <v>28896</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" ref="D28" si="27">D26-D27</f>
+        <f t="shared" ref="D28" si="30">D26-D27</f>
         <v>31801</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" ref="E28:F28" si="28">E26-E27</f>
+        <f t="shared" ref="E28:F28" si="31">E26-E27</f>
         <v>38542</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>59302</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" ref="G28:J28" si="29">G26-G27</f>
+        <f t="shared" ref="G28:J28" si="32">G26-G27</f>
         <v>47767</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>42587</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>39510</v>
       </c>
       <c r="J28" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>94958</v>
       </c>
       <c r="K28" s="4">
         <f>K26-K27</f>
         <v>23413</v>
       </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
+      <c r="L28" s="4">
+        <f>L26-L27</f>
+        <v>19230</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" ref="M28:N28" si="33">M26-M27</f>
+        <v>46942.479780000009</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="33"/>
+        <v>49134.397220000006</v>
+      </c>
+      <c r="O28" s="4"/>
       <c r="Q28" s="3">
         <f>Q26-Q27</f>
         <v>159847</v>
@@ -2014,8 +2264,12 @@
         <f>R26-R27</f>
         <v>224822</v>
       </c>
-    </row>
-    <row r="29" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <f>S26-S27</f>
+        <v>138719.87699999998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>34</v>
       </c>
@@ -2046,7 +2300,9 @@
       <c r="K29" s="4">
         <v>25545</v>
       </c>
-      <c r="L29" s="4"/>
+      <c r="L29" s="4">
+        <v>28139</v>
+      </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="Q29" s="3">
@@ -2056,7 +2312,7 @@
         <v>123788</v>
       </c>
     </row>
-    <row r="31" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
         <v>35</v>
       </c>
@@ -2065,71 +2321,143 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="9">
-        <f t="shared" ref="G31" si="30">G18/C18-1</f>
+        <f t="shared" ref="G31" si="34">G18/C18-1</f>
         <v>0.2520520057372877</v>
       </c>
       <c r="H31" s="9">
-        <f t="shared" ref="H31:J31" si="31">H18/D18-1</f>
+        <f t="shared" ref="H31:J31" si="35">H18/D18-1</f>
         <v>0.20347658052105189</v>
       </c>
       <c r="I31" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.13488564891946409</v>
       </c>
       <c r="J31" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>7.8694386881027034E-2</v>
       </c>
       <c r="K31" s="9">
         <f>K18/G18-1</f>
         <v>1.2416576129132828E-3</v>
       </c>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
+      <c r="L31" s="9">
+        <f>L18/H18-1</f>
+        <v>-3.0558589314258033E-2</v>
+      </c>
+      <c r="M31" s="9">
+        <f>M18/I18-1</f>
+        <v>-3.7247134187458064E-3</v>
+      </c>
+      <c r="N31" s="9">
+        <f>N18/J18-1</f>
+        <v>1.6990179487890833E-2</v>
+      </c>
       <c r="R31" s="11">
         <f>R18/Q18-1</f>
         <v>0.16191626008164883</v>
       </c>
-    </row>
-    <row r="32" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-    </row>
-    <row r="33" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4">
-        <f>188826+2691+82604+11742+1568+69961+21124+4222+189993+197161+6509+309630</f>
-        <v>1086031</v>
-      </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="S31" s="11">
+        <f>S18/R18-1</f>
+        <v>-3.8161601662506373E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17">
+        <f t="shared" ref="E32:L32" si="36">+E20/E18</f>
+        <v>0.45156121708769442</v>
+      </c>
+      <c r="F32" s="17">
+        <f t="shared" si="36"/>
+        <v>0.44049854491318108</v>
+      </c>
+      <c r="G32" s="17">
+        <f t="shared" si="36"/>
+        <v>0.46292395586202817</v>
+      </c>
+      <c r="H32" s="17">
+        <f t="shared" si="36"/>
+        <v>0.45382217432499872</v>
+      </c>
+      <c r="I32" s="17">
+        <f t="shared" si="36"/>
+        <v>0.44073808721060914</v>
+      </c>
+      <c r="J32" s="17">
+        <f t="shared" si="36"/>
+        <v>0.4009834382889006</v>
+      </c>
+      <c r="K32" s="17">
+        <f t="shared" si="36"/>
+        <v>0.42130049973795131</v>
+      </c>
+      <c r="L32" s="17">
+        <f>+L20/L18</f>
+        <v>0.43173373920050134</v>
+      </c>
+      <c r="M32" s="17">
+        <f t="shared" ref="M32:N32" si="37">+M20/M18</f>
+        <v>0.44</v>
+      </c>
+      <c r="N32" s="17">
+        <f t="shared" si="37"/>
+        <v>0.44</v>
+      </c>
+      <c r="R32" s="18"/>
+    </row>
+    <row r="33" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17">
+        <f>+E27/E26</f>
+        <v>0.13656525830010305</v>
+      </c>
+      <c r="F33" s="17">
+        <f t="shared" ref="F33:N33" si="38">+F27/F26</f>
+        <v>5.986239259329719E-2</v>
+      </c>
+      <c r="G33" s="17">
+        <f t="shared" si="38"/>
+        <v>0.15086927151846979</v>
+      </c>
+      <c r="H33" s="17">
+        <f t="shared" si="38"/>
+        <v>8.7838416723783411E-2</v>
+      </c>
+      <c r="I33" s="17">
+        <f t="shared" si="38"/>
+        <v>0.13216333164935093</v>
+      </c>
+      <c r="J33" s="17">
+        <f t="shared" si="38"/>
+        <v>4.6539415420762502E-2</v>
+      </c>
+      <c r="K33" s="17">
+        <f t="shared" si="38"/>
+        <v>0.19271084752775672</v>
+      </c>
+      <c r="L33" s="17">
+        <f t="shared" si="38"/>
+        <v>0.19194890326918229</v>
+      </c>
+      <c r="M33" s="17">
+        <f t="shared" si="38"/>
+        <v>0.15</v>
+      </c>
+      <c r="N33" s="17">
+        <f t="shared" si="38"/>
+        <v>0.15</v>
+      </c>
+      <c r="R33" s="18"/>
+    </row>
+    <row r="34" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -2138,16 +2466,14 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="4">
-        <v>52774</v>
-      </c>
+      <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2158,15 +2484,19 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4">
-        <v>2712</v>
-      </c>
-      <c r="L35" s="4"/>
+        <f>188826+2691+82604+11742+1568+69961+21124+4222+189993+197161+6509+309630</f>
+        <v>1086031</v>
+      </c>
+      <c r="L35" s="4">
+        <f>310209+204398+24945+5366+184658+2594+91670+14762+1095+143563+6676</f>
+        <v>989936</v>
+      </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2177,15 +2507,17 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4">
-        <v>27616</v>
-      </c>
-      <c r="L36" s="4"/>
+        <v>52774</v>
+      </c>
+      <c r="L36" s="4">
+        <v>49446</v>
+      </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2196,15 +2528,17 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4">
-        <v>37093</v>
-      </c>
-      <c r="L37" s="4"/>
+        <v>2712</v>
+      </c>
+      <c r="L37" s="4">
+        <v>2939</v>
+      </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -2215,15 +2549,17 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4">
-        <v>178712</v>
-      </c>
-      <c r="L38" s="4"/>
+        <v>27616</v>
+      </c>
+      <c r="L38" s="4">
+        <v>28864</v>
+      </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -2234,16 +2570,18 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4">
-        <f>589+6529+61560</f>
-        <v>68678</v>
-      </c>
-      <c r="L39" s="4"/>
+        <v>37093</v>
+      </c>
+      <c r="L39" s="4">
+        <f>37335+66155</f>
+        <v>103490</v>
+      </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -2254,16 +2592,17 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4">
-        <f>18451+22091</f>
-        <v>40542</v>
-      </c>
-      <c r="L40" s="4"/>
+        <v>178712</v>
+      </c>
+      <c r="L40" s="4">
+        <v>177718</v>
+      </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -2274,14 +2613,20 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4">
-        <f>SUM(K33:K40)</f>
-        <v>1494158</v>
-      </c>
-      <c r="L41" s="4"/>
+        <f>589+6529+61560</f>
+        <v>68678</v>
+      </c>
+      <c r="L41" s="4">
+        <f>59073+6691+569</f>
+        <v>66333</v>
+      </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -2290,14 +2635,20 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
+      <c r="K42" s="4">
+        <f>18451+22091</f>
+        <v>40542</v>
+      </c>
+      <c r="L42" s="4">
+        <f>18321+22622</f>
+        <v>40943</v>
+      </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -2308,17 +2659,17 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4">
-        <f>148467+135465+21656+5783+9515+3326</f>
-        <v>324212</v>
-      </c>
-      <c r="L43" s="4"/>
+        <f>SUM(K35:K42)</f>
+        <v>1494158</v>
+      </c>
+      <c r="L43" s="4">
+        <f>SUM(L35:L42)</f>
+        <v>1459669</v>
+      </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="3" t="s">
-        <v>46</v>
-      </c>
+    <row r="44" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -2327,17 +2678,14 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="4">
-        <f>9377+112512+48437</f>
-        <v>170326</v>
-      </c>
+      <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -2348,16 +2696,19 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4">
-        <f>12524+13968+2456</f>
-        <v>28948</v>
-      </c>
-      <c r="L45" s="4"/>
+        <f>148467+135465+21656+5783+9515+3326</f>
+        <v>324212</v>
+      </c>
+      <c r="L45" s="4">
+        <f>162577+20473+143232+10062+3909+5470</f>
+        <v>345723</v>
+      </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2368,16 +2719,19 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4">
-        <f>17981+5927</f>
-        <v>23908</v>
-      </c>
-      <c r="L46" s="4"/>
+        <f>9377+112512+48437</f>
+        <v>170326</v>
+      </c>
+      <c r="L46" s="4">
+        <f>105119+53326+9971</f>
+        <v>168416</v>
+      </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -2388,16 +2742,19 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4">
-        <f>4562+96925</f>
-        <v>101487</v>
-      </c>
-      <c r="L47" s="4"/>
+        <f>12524+13968+2456</f>
+        <v>28948</v>
+      </c>
+      <c r="L47" s="4">
+        <f>9656+2353+11401</f>
+        <v>23410</v>
+      </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -2408,15 +2765,19 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4">
-        <v>845277</v>
-      </c>
-      <c r="L48" s="4"/>
+        <f>17981+5927</f>
+        <v>23908</v>
+      </c>
+      <c r="L48" s="4">
+        <f>6086+18372</f>
+        <v>24458</v>
+      </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
     </row>
     <row r="49" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -2427,12 +2788,80 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4">
-        <f>SUM(K43:K48)</f>
-        <v>1494158</v>
-      </c>
-      <c r="L49" s="4"/>
+        <f>4562+96925</f>
+        <v>101487</v>
+      </c>
+      <c r="L49" s="4">
+        <f>89223+4558</f>
+        <v>93781</v>
+      </c>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4">
+        <v>845277</v>
+      </c>
+      <c r="L50" s="4">
+        <v>803881</v>
+      </c>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4">
+        <f>SUM(K45:K50)</f>
+        <v>1494158</v>
+      </c>
+      <c r="L51" s="4">
+        <f>SUM(L45:L50)</f>
+        <v>1459669</v>
+      </c>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+    </row>
+    <row r="53" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4">
+        <v>94182</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4">
+        <v>110715</v>
+      </c>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/700 HK.xlsx
+++ b/700 HK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CAD233-77CA-48CF-9654-32C257C21C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957FF86A-0F4F-4CB6-A113-63C6C61EB529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54840" yWindow="2055" windowWidth="20310" windowHeight="17790" activeTab="1" xr2:uid="{C183CDF4-DAE3-4211-A459-AE4D0C2142B8}"/>
+    <workbookView xWindow="-45240" yWindow="3690" windowWidth="38715" windowHeight="17130" xr2:uid="{C183CDF4-DAE3-4211-A459-AE4D0C2142B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
@@ -357,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -382,22 +382,19 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{B765168E-6CF7-4E4F-A3D7-A384A42A8318}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -515,9 +512,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -555,7 +552,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -661,7 +658,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -803,7 +800,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -813,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E1D774-2E12-4746-88E6-1A6120E6AF7B}">
   <dimension ref="B2:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -999,11 +996,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666C0D08-E52C-4128-A040-0E26B040CE26}">
   <dimension ref="A1:AF53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S31" sqref="S31"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2361,101 +2358,97 @@
         <v>-3.8161601662506373E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="15" t="s">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17">
-        <f t="shared" ref="E32:L32" si="36">+E20/E18</f>
+      <c r="E32" s="14">
+        <f t="shared" ref="E32:K32" si="36">+E20/E18</f>
         <v>0.45156121708769442</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="14">
         <f t="shared" si="36"/>
         <v>0.44049854491318108</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="14">
         <f t="shared" si="36"/>
         <v>0.46292395586202817</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="14">
         <f t="shared" si="36"/>
         <v>0.45382217432499872</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="14">
         <f t="shared" si="36"/>
         <v>0.44073808721060914</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="14">
         <f t="shared" si="36"/>
         <v>0.4009834382889006</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K32" s="14">
         <f t="shared" si="36"/>
         <v>0.42130049973795131</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="14">
         <f>+L20/L18</f>
         <v>0.43173373920050134</v>
       </c>
-      <c r="M32" s="17">
+      <c r="M32" s="14">
         <f t="shared" ref="M32:N32" si="37">+M20/M18</f>
         <v>0.44</v>
       </c>
-      <c r="N32" s="17">
+      <c r="N32" s="14">
         <f t="shared" si="37"/>
         <v>0.44</v>
       </c>
-      <c r="R32" s="18"/>
-    </row>
-    <row r="33" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="15" t="s">
+      <c r="R32" s="15"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17">
+      <c r="E33" s="14">
         <f>+E27/E26</f>
         <v>0.13656525830010305</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="14">
         <f t="shared" ref="F33:N33" si="38">+F27/F26</f>
         <v>5.986239259329719E-2</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="14">
         <f t="shared" si="38"/>
         <v>0.15086927151846979</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="14">
         <f t="shared" si="38"/>
         <v>8.7838416723783411E-2</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="14">
         <f t="shared" si="38"/>
         <v>0.13216333164935093</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J33" s="14">
         <f t="shared" si="38"/>
         <v>4.6539415420762502E-2</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="14">
         <f t="shared" si="38"/>
         <v>0.19271084752775672</v>
       </c>
-      <c r="L33" s="17">
+      <c r="L33" s="14">
         <f t="shared" si="38"/>
         <v>0.19194890326918229</v>
       </c>
-      <c r="M33" s="17">
+      <c r="M33" s="14">
         <f t="shared" si="38"/>
         <v>0.15</v>
       </c>
-      <c r="N33" s="17">
+      <c r="N33" s="14">
         <f t="shared" si="38"/>
         <v>0.15</v>
       </c>
-      <c r="R33" s="18"/>
+      <c r="R33" s="15"/>
     </row>
     <row r="34" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C34" s="4"/>
